--- a/wxapp/WeChatProjects/问题列表.xlsx
+++ b/wxapp/WeChatProjects/问题列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>预计（日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库暂定hsql，服务型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot启动初始化数据库服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot resttemplate替代直接httpclient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船票详情界面美化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船票详情跳轉支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +140,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="1"/>
@@ -511,16 +531,74 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B8" s="1">
         <v>44014</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C8" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44019</v>
       </c>
     </row>
   </sheetData>

--- a/wxapp/WeChatProjects/问题列表.xlsx
+++ b/wxapp/WeChatProjects/问题列表.xlsx
@@ -1,131 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView windowWidth="21480" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+  <si>
+    <t>类</t>
+  </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发现时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处理开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计（时）</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>HTTPS链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小程序调试时可以跳过，但实际运营必须解决这个问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网穿透考虑nat123</t>
+  </si>
+  <si>
+    <t>SSL证书申请</t>
+  </si>
+  <si>
+    <t>转换jks，使用相同密码</t>
+  </si>
+  <si>
+    <t>存储选型</t>
+  </si>
+  <si>
+    <t>暂定springboot + entitymananger（熟悉EM）</t>
+  </si>
+  <si>
+    <t>数据库暂定hsql，服务型</t>
+  </si>
+  <si>
+    <t>（否定）涉及订单，还是用mysql安全，调试期间可用hsql，运营必须切回mysql。</t>
+  </si>
+  <si>
+    <t>springboot启动初始化数据库服务</t>
+  </si>
+  <si>
+    <t>spring boot resttemplate替代直接httpclient</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>首页-&gt;查询-&gt;详情-&gt;下单-&gt;支付-&gt;回访确认</t>
   </si>
   <si>
     <t>解析票量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>解析票量返回json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储选型问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂定springboot + entitymananger（熟悉EM）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>船票详情显示问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暂时考虑折叠显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计（日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库暂定hsql，服务型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springboot启动初始化数据库服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring boot resttemplate替代直接httpclient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>船票详情界面美化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>船票详情跳轉支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -134,27 +157,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -201,74 +239,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,8 +439,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -438,198 +476,324 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="45.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.725" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="2"/>
+    <col min="6" max="6" width="9.26666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44019</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44019</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44017</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44018</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44018</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:6">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44015</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44015</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44019</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
         <v>44014</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D12" s="2">
+        <v>44014</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44014</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44014</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44017</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44019</v>
+      </c>
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44014</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44014</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44014</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44014</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
         <v>44019</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
         <v>44019</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44019</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44014</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44019</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44019</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44019</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44019</v>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/wxapp/WeChatProjects/问题列表.xlsx
+++ b/wxapp/WeChatProjects/问题列表.xlsx
@@ -107,11 +107,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -122,12 +122,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,15 +142,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -161,29 +162,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,18 +500,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -525,10 +530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -618,142 +623,145 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44017</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>44017</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>44018</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44018</v>
+      </c>
+      <c r="E7" s="6">
+        <v>44018</v>
+      </c>
       <c r="F7" s="3">
         <v>0.5</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+    </row>
+    <row r="8" customFormat="1" spans="2:6">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>44018</v>
+        <v>44015</v>
       </c>
       <c r="D8" s="2">
-        <v>44018</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44018</v>
+        <v>44019</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44019</v>
       </c>
       <c r="F8" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>44015</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9"/>
+      <c r="D9" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44019</v>
+      </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44015</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44019</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44019</v>
-      </c>
-      <c r="F10" s="3">
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44014</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44014</v>
+      </c>
+      <c r="E11" s="7">
+        <v>44014</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
+      <c r="G11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>44014</v>
       </c>
       <c r="D12" s="2">
-        <v>44014</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44014</v>
+        <v>44017</v>
+      </c>
+      <c r="E12" s="7">
+        <v>44019</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>44014</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44017</v>
-      </c>
-      <c r="E13" s="2">
         <v>44019</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>44019</v>
       </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44019</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>

--- a/wxapp/WeChatProjects/问题列表.xlsx
+++ b/wxapp/WeChatProjects/问题列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\git\wxapp\wxapp\WeChatProjects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="9920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>类</t>
   </si>
@@ -51,9 +56,6 @@
     <t>SSL证书申请</t>
   </si>
   <si>
-    <t>转换jks，使用相同密码</t>
-  </si>
-  <si>
     <t>存储选型</t>
   </si>
   <si>
@@ -100,20 +102,20 @@
   </si>
   <si>
     <t>下单</t>
+  </si>
+  <si>
+    <t>来此加密 网站，直接申请就行了，不过只有3个月有效期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -128,8 +130,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,44 +172,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -494,6 +499,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -528,26 +534,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="45.5416666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.725" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2"/>
-    <col min="6" max="6" width="9.26666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="70.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="2"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -584,12 +589,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -599,19 +604,19 @@
       <c r="D4" s="2">
         <v>44019</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>44019</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -620,12 +625,12 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>44017</v>
@@ -635,12 +640,12 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>44018</v>
@@ -655,9 +660,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>44015</v>
@@ -672,9 +677,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>44015</v>
@@ -689,21 +694,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>44014</v>
@@ -718,12 +723,12 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>44014</v>
@@ -738,12 +743,12 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>44019</v>
@@ -752,55 +757,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
-        <v>44019</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/wxapp/WeChatProjects/问题列表.xlsx
+++ b/wxapp/WeChatProjects/问题列表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\git\wxapp\wxapp\WeChatProjects\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="9920"/>
+    <workbookView windowWidth="21480" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>类</t>
   </si>
@@ -56,6 +51,9 @@
     <t>SSL证书申请</t>
   </si>
   <si>
+    <t>来此加密 网站，直接申请就行了，不过只有3个月有效期</t>
+  </si>
+  <si>
     <t>存储选型</t>
   </si>
   <si>
@@ -102,25 +100,30 @@
   </si>
   <si>
     <t>下单</t>
-  </si>
-  <si>
-    <t>来此加密 网站，直接申请就行了，不过只有3个月有效期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -130,14 +133,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,14 +153,15 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -172,35 +170,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -499,7 +506,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -534,25 +540,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="2"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="70.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="45.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.725" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="2"/>
+    <col min="6" max="6" width="9.26666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -589,12 +596,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -604,19 +611,19 @@
       <c r="D4" s="2">
         <v>44019</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>44019</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -625,27 +632,27 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>44017</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="3">
         <v>0.5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>44018</v>
@@ -653,16 +660,16 @@
       <c r="D7" s="2">
         <v>44018</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>44018</v>
       </c>
       <c r="F7" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>44015</v>
@@ -670,16 +677,16 @@
       <c r="D8" s="2">
         <v>44019</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>44019</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>44015</v>
@@ -687,28 +694,28 @@
       <c r="D9" s="2">
         <v>44019</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>44019</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>44014</v>
@@ -716,19 +723,19 @@
       <c r="D11" s="2">
         <v>44014</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>44014</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>44014</v>
@@ -736,73 +743,82 @@
       <c r="D12" s="2">
         <v>44017</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>44019</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>44019</v>
       </c>
+      <c r="D13" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44020</v>
+      </c>
       <c r="F13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>44019</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
